--- a/ocms/src/test/resources/DownloadedFiles/Fax Auto ACK Configuration.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Fax Auto ACK Configuration.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t xml:space="preserve">Fax Line</t>
   </si>
@@ -40,82 +40,94 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
+    <t xml:space="preserve">7856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gooogle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QATETHERFI\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 13:09:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MadMan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 13:10:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fax Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 13:11:27</t>
+  </si>
+  <si>
     <t xml:space="preserve">4215</t>
   </si>
   <si>
-    <t xml:space="preserve">WL</t>
+    <t xml:space="preserve">VIP</t>
   </si>
   <si>
     <t xml:space="preserve">Database</t>
   </si>
   <si>
-    <t xml:space="preserve">Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MadMan</t>
+    <t xml:space="preserve">04/08/2021 17:48:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 17:49:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/08/2021 17:49:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DefaultTest</t>
   </si>
   <si>
     <t xml:space="preserve">qatetherfi\administrator</t>
   </si>
   <si>
-    <t xml:space="preserve">28/05/2020 14:56:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gooogle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/06/2020 14:03:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NameData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QATETHERFI\Administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2021 13:09:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2021 13:10:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2021 13:10:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fax Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/08/2021 13:11:27</t>
+    <t xml:space="preserve">11/08/2021 00:34:19</t>
   </si>
   <si>
     <t xml:space="preserve">9898</t>
@@ -127,7 +139,7 @@
     <t xml:space="preserve">Disabled</t>
   </si>
   <si>
-    <t xml:space="preserve">04/08/2021 14:00:33</t>
+    <t xml:space="preserve">11/08/2021 00:48:42</t>
   </si>
 </sst>
 </file>
@@ -195,7 +207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -286,10 +298,10 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -298,7 +310,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>22</v>
@@ -309,10 +321,10 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -321,41 +333,41 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -367,7 +379,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>32</v>
@@ -378,22 +390,45 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
